--- a/data/landings/cdfw/public/fish_bulletins/raw/fb166/raw/Table5.xlsx
+++ b/data/landings/cdfw/public/fish_bulletins/raw/fb166/raw/Table5.xlsx
@@ -1,24 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11012"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11208"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cfree/Dropbox/Chris/UCSB/projects/wc_cc_synthesis/data/landings/cdfw/public/fish_bulletins/fb166/raw/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/camilavargaspoulsen/github/wc_climate_synthesis/data/landings/cdfw/public/fish_bulletins/raw/fb166/raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EB74D18-6F3C-A249-BD31-09BBA7EA67EB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05EDC343-7A1B-544E-BEC5-BF2B3F9A3FAF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20160" yWindow="5800" windowWidth="27640" windowHeight="16940" xr2:uid="{764B23A5-0E03-4944-8C81-B5DD59A119C5}"/>
+    <workbookView xWindow="12800" yWindow="460" windowWidth="12800" windowHeight="15540" xr2:uid="{764B23A5-0E03-4944-8C81-B5DD59A119C5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -36,111 +44,6 @@
     <t>1974-75</t>
   </si>
   <si>
-    <t>0- 10....................</t>
-  </si>
-  <si>
-    <t>11- 15....................</t>
-  </si>
-  <si>
-    <t>16- 20....................</t>
-  </si>
-  <si>
-    <t>21- 25....................</t>
-  </si>
-  <si>
-    <t>26- 30....................</t>
-  </si>
-  <si>
-    <t>31- 35....................</t>
-  </si>
-  <si>
-    <t>36- 40....................</t>
-  </si>
-  <si>
-    <t>41- 45....................</t>
-  </si>
-  <si>
-    <t>46- 50....................</t>
-  </si>
-  <si>
-    <t>51- 55....................</t>
-  </si>
-  <si>
-    <t>56- 60....................</t>
-  </si>
-  <si>
-    <t>61- 65....................</t>
-  </si>
-  <si>
-    <t>66- 70....................</t>
-  </si>
-  <si>
-    <t>71- 75....................</t>
-  </si>
-  <si>
-    <t>76- 80....................</t>
-  </si>
-  <si>
-    <t>81- 85....................</t>
-  </si>
-  <si>
-    <t>86- 90....................</t>
-  </si>
-  <si>
-    <t>96-100....................</t>
-  </si>
-  <si>
-    <t>101-105....................</t>
-  </si>
-  <si>
-    <t>106-110....................</t>
-  </si>
-  <si>
-    <t>111-115....................</t>
-  </si>
-  <si>
-    <t>116-120....................</t>
-  </si>
-  <si>
-    <t>121-125....................</t>
-  </si>
-  <si>
-    <t>126-130....................</t>
-  </si>
-  <si>
-    <t>131-135....................</t>
-  </si>
-  <si>
-    <t>136-140....................</t>
-  </si>
-  <si>
-    <t>141-145....................</t>
-  </si>
-  <si>
-    <t>146-150....................</t>
-  </si>
-  <si>
-    <t>151-155....</t>
-  </si>
-  <si>
-    <t>156-160....................</t>
-  </si>
-  <si>
-    <t>161-165....................</t>
-  </si>
-  <si>
-    <t>166-170_____</t>
-  </si>
-  <si>
-    <t>171-175_____</t>
-  </si>
-  <si>
-    <t>176-180....................</t>
-  </si>
-  <si>
-    <t>Total...................</t>
-  </si>
-  <si>
     <t>181 and over</t>
   </si>
   <si>
@@ -148,6 +51,111 @@
   </si>
   <si>
     <t>91- 95</t>
+  </si>
+  <si>
+    <t>0- 10</t>
+  </si>
+  <si>
+    <t>16- 20</t>
+  </si>
+  <si>
+    <t>21- 25</t>
+  </si>
+  <si>
+    <t>26- 30</t>
+  </si>
+  <si>
+    <t>31- 35</t>
+  </si>
+  <si>
+    <t>36- 40</t>
+  </si>
+  <si>
+    <t>41- 45</t>
+  </si>
+  <si>
+    <t>46- 50</t>
+  </si>
+  <si>
+    <t>51- 55</t>
+  </si>
+  <si>
+    <t>56- 60</t>
+  </si>
+  <si>
+    <t>61- 65</t>
+  </si>
+  <si>
+    <t>66- 70</t>
+  </si>
+  <si>
+    <t>71- 75</t>
+  </si>
+  <si>
+    <t>76- 80</t>
+  </si>
+  <si>
+    <t>81- 85</t>
+  </si>
+  <si>
+    <t>86- 90</t>
+  </si>
+  <si>
+    <t>96-100</t>
+  </si>
+  <si>
+    <t>101-105</t>
+  </si>
+  <si>
+    <t>106-110</t>
+  </si>
+  <si>
+    <t>111-115</t>
+  </si>
+  <si>
+    <t>116-120</t>
+  </si>
+  <si>
+    <t>121-125</t>
+  </si>
+  <si>
+    <t>126-130</t>
+  </si>
+  <si>
+    <t>131-135</t>
+  </si>
+  <si>
+    <t>136-140</t>
+  </si>
+  <si>
+    <t>141-145</t>
+  </si>
+  <si>
+    <t>146-150</t>
+  </si>
+  <si>
+    <t>151-155</t>
+  </si>
+  <si>
+    <t>156-160</t>
+  </si>
+  <si>
+    <t>161-165</t>
+  </si>
+  <si>
+    <t>176-180</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>15-11</t>
+  </si>
+  <si>
+    <t>166-170</t>
+  </si>
+  <si>
+    <t>171-175</t>
   </si>
 </sst>
 </file>
@@ -193,12 +201,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -515,8 +524,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB416871-DEBF-4344-BFEE-52151AA878C9}">
   <dimension ref="A1:C39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -537,7 +546,7 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B2" s="1">
         <v>4</v>
@@ -547,8 +556,8 @@
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="1" t="s">
-        <v>4</v>
+      <c r="A3" s="5" t="s">
+        <v>38</v>
       </c>
       <c r="B3" s="1">
         <v>163</v>
@@ -559,7 +568,7 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B4" s="1">
         <v>1119</v>
@@ -570,7 +579,7 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B5" s="1">
         <v>870</v>
@@ -581,7 +590,7 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B6" s="1">
         <v>842</v>
@@ -592,7 +601,7 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B7" s="1">
         <v>684</v>
@@ -603,7 +612,7 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B8" s="1">
         <v>860</v>
@@ -614,7 +623,7 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B9" s="1">
         <v>435</v>
@@ -625,7 +634,7 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B10" s="1">
         <v>306</v>
@@ -636,7 +645,7 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B11" s="1">
         <v>141</v>
@@ -647,7 +656,7 @@
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B12" s="1">
         <v>136</v>
@@ -658,7 +667,7 @@
     </row>
     <row r="13" spans="1:3">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B13" s="1">
         <v>107</v>
@@ -669,7 +678,7 @@
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B14" s="1">
         <v>31</v>
@@ -680,7 +689,7 @@
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B15" s="1">
         <v>37</v>
@@ -691,7 +700,7 @@
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B16" s="1">
         <v>29</v>
@@ -702,7 +711,7 @@
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B17" s="1">
         <v>22</v>
@@ -713,7 +722,7 @@
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B18" s="1">
         <v>10</v>
@@ -724,7 +733,7 @@
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="1" t="s">
-        <v>40</v>
+        <v>5</v>
       </c>
       <c r="B19" s="1">
         <v>9</v>
@@ -735,7 +744,7 @@
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B20" s="1">
         <v>8</v>
@@ -746,7 +755,7 @@
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B21" s="1">
         <v>5</v>
@@ -757,7 +766,7 @@
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B22" s="1">
         <v>5</v>
@@ -768,7 +777,7 @@
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B23" s="1">
         <v>5</v>
@@ -779,7 +788,7 @@
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B24" s="1">
         <v>8</v>
@@ -790,7 +799,7 @@
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B25" s="1">
         <v>4</v>
@@ -801,7 +810,7 @@
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B26" s="1">
         <v>3</v>
@@ -812,7 +821,7 @@
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B27" s="1">
         <v>7</v>
@@ -823,7 +832,7 @@
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B28" s="1">
         <v>10</v>
@@ -834,7 +843,7 @@
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B29" s="1">
         <v>1</v>
@@ -845,7 +854,7 @@
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B30" s="1">
         <v>0</v>
@@ -856,7 +865,7 @@
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B31" s="1">
         <v>17</v>
@@ -867,7 +876,7 @@
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B32" s="1">
         <v>4</v>
@@ -878,7 +887,7 @@
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B33" s="1">
         <v>3</v>
@@ -889,7 +898,7 @@
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="1" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="B34" s="1">
         <v>4</v>
@@ -900,7 +909,7 @@
     </row>
     <row r="35" spans="1:3">
       <c r="A35" s="1" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="B35" s="1">
         <v>6</v>
@@ -922,7 +931,7 @@
     </row>
     <row r="37" spans="1:3">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>3</v>
       </c>
       <c r="B37" s="1">
         <v>35</v>
@@ -944,7 +953,7 @@
     </row>
     <row r="39" spans="1:3">
       <c r="A39" s="3" t="s">
-        <v>39</v>
+        <v>4</v>
       </c>
       <c r="B39" s="4">
         <f>SUM(B2:B37)-B38</f>
